--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1794.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1794.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.172206109865709</v>
+        <v>0.7107720971107483</v>
       </c>
       <c r="B1">
-        <v>2.307195353858934</v>
+        <v>1.459053039550781</v>
       </c>
       <c r="C1">
-        <v>4.949135420245257</v>
+        <v>4.033444404602051</v>
       </c>
       <c r="D1">
-        <v>2.646878164463092</v>
+        <v>2.704841136932373</v>
       </c>
       <c r="E1">
-        <v>1.119616191287403</v>
+        <v>0.5901511311531067</v>
       </c>
     </row>
   </sheetData>
